--- a/tests/testthat/xlsx/SDTM_METADATA.xlsx
+++ b/tests/testthat/xlsx/SDTM_METADATA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>OID</t>
   </si>
@@ -255,9 +255,6 @@
     <t xml:space="preserve">ADAE</t>
   </si>
   <si>
-    <t xml:space="preserve">ADQSADAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADSL</t>
   </si>
   <si>
@@ -600,22 +597,76 @@
     <t xml:space="preserve">1st Occurrence of CQ01 01 Flag</t>
   </si>
   <si>
+    <t xml:space="preserve">SUBJID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject Identifier for the Study</t>
+  </si>
+  <si>
     <t xml:space="preserve">SITEGR1</t>
   </si>
   <si>
     <t xml:space="preserve">Pooled Site Group 1</t>
   </si>
   <si>
-    <t xml:space="preserve">TRTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRTPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Treatment (N)</t>
+    <t xml:space="preserve">ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of Planned Arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT01P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Treatment for Period 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT01PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Treatment for Period 01 (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT01A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Treatment for Period 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT01AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Treatment for Period 01 (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRTDURD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Treatment Duration (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVGDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Daily Dose (as planned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUMDOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative Dose (as planned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHNIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethnicity</t>
   </si>
   <si>
     <t xml:space="preserve">ITTFL</t>
@@ -630,223 +681,22 @@
     <t xml:space="preserve">Efficacy Population Flag</t>
   </si>
   <si>
+    <t xml:space="preserve">COMP8FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completers of Week 8 Population Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMP16FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completers of Week 16 Population Flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMP24FL</t>
   </si>
   <si>
     <t xml:space="preserve">Completers of Week 24 Population Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVISIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVISITN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Visit (N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISITNUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Relative Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAMCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter (N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baseline Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change from Baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Change from Baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABLFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baseline Record Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANL01FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Record Flag 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derivation Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Valid Relative Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWTARGET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWTDIFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Diff from Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Beginning Timepoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Ending Timepoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSSEQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBJID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject Identifier for the Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of Planned Arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT01P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Treatment for Period 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT01PN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Treatment for Period 01 (N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT01A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Treatment for Period 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT01AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Treatment for Period 01 (N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRTDURD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Treatment Duration (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Daily Dose (as planned)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUMDOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative Dose (as planned)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETHNIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP8FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completers of Week 8 Population Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP16FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completers of Week 16 Population Flag</t>
   </si>
   <si>
     <t xml:space="preserve">DISCONFL</t>
@@ -1667,12 +1517,8 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1893,16 +1739,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="E2" s="18" t="n">
         <v>12</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="14"/>
@@ -1923,16 +1769,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="14"/>
@@ -1953,16 +1799,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="18" t="n">
         <v>11</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="14"/>
@@ -1983,16 +1829,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="18" t="n">
         <v>20</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="14"/>
@@ -2013,16 +1859,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E6" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="14"/>
@@ -2043,16 +1889,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="14"/>
@@ -2073,16 +1919,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="14"/>
@@ -2103,16 +1949,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="14"/>
@@ -2133,16 +1979,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>32</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="14"/>
@@ -2163,16 +2009,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="14"/>
@@ -2193,16 +2039,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="14"/>
@@ -2223,16 +2069,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="14"/>
@@ -2253,16 +2099,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="14"/>
@@ -2283,16 +2129,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="14"/>
@@ -2313,16 +2159,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="14"/>
@@ -2343,16 +2189,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="14"/>
@@ -2373,16 +2219,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="18" t="n">
         <v>5</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="14"/>
@@ -2403,16 +2249,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="14"/>
@@ -2433,16 +2279,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="14"/>
@@ -2463,16 +2309,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="14"/>
@@ -2493,16 +2339,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="14"/>
@@ -2523,16 +2369,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="18" t="n">
         <v>46</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="14"/>
@@ -2553,16 +2399,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="18" t="n">
         <v>46</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="14"/>
@@ -2583,16 +2429,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="14"/>
@@ -2613,16 +2459,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="18" t="n">
         <v>46</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="14"/>
@@ -2643,16 +2489,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="14"/>
@@ -2673,16 +2519,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="18" t="n">
         <v>8</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="14"/>
@@ -2703,16 +2549,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="14"/>
@@ -2733,16 +2579,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="18" t="n">
         <v>9</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="14"/>
@@ -2763,16 +2609,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="14"/>
@@ -2793,16 +2639,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="18" t="n">
         <v>67</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="14"/>
@@ -2823,16 +2669,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="18" t="n">
         <v>67</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="14"/>
@@ -2853,16 +2699,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="14"/>
@@ -2883,16 +2729,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="18" t="n">
         <v>8</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="14"/>
@@ -2913,16 +2759,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="14"/>
@@ -2943,16 +2789,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="14"/>
@@ -2973,16 +2819,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="14"/>
@@ -3003,16 +2849,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="14"/>
@@ -3033,16 +2879,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="14"/>
@@ -3063,16 +2909,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="14"/>
@@ -3093,16 +2939,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="14"/>
@@ -3123,16 +2969,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="14"/>
@@ -3153,16 +2999,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="18" t="n">
         <v>8</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="14"/>
@@ -3183,16 +3029,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="14"/>
@@ -3213,16 +3059,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="18" t="n">
         <v>26</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="14"/>
@@ -3243,16 +3089,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="14"/>
@@ -3273,16 +3119,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="14"/>
@@ -3303,16 +3149,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="14"/>
@@ -3333,16 +3179,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="14"/>
@@ -3363,16 +3209,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="14"/>
@@ -3393,16 +3239,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="14"/>
@@ -3423,16 +3269,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E53" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="14"/>
@@ -3453,16 +3299,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="14"/>
@@ -3483,16 +3329,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="18" t="n">
         <v>19</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="14"/>
@@ -3513,16 +3359,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E56" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="14"/>
@@ -3543,16 +3389,16 @@
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="E57" s="18" t="n">
         <v>12</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="14"/>
@@ -3573,16 +3419,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="14"/>
@@ -3603,16 +3449,16 @@
         <v>3</v>
       </c>
       <c r="C59" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="14"/>
@@ -3633,16 +3479,16 @@
         <v>4</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" s="18" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="14"/>
@@ -3663,16 +3509,16 @@
         <v>5</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E61" s="18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="14"/>
@@ -3693,16 +3539,16 @@
         <v>6</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E62" s="18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="14"/>
@@ -3723,16 +3569,16 @@
         <v>7</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E63" s="18" t="n">
         <v>20</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="14"/>
@@ -3753,16 +3599,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E64" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="14"/>
@@ -3783,16 +3629,16 @@
         <v>9</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E65" s="18" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="14"/>
@@ -3813,16 +3659,16 @@
         <v>10</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E66" s="18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="14"/>
@@ -3843,16 +3689,16 @@
         <v>11</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E67" s="18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="14"/>
@@ -3873,16 +3719,16 @@
         <v>12</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E68" s="18" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="14"/>
@@ -3903,16 +3749,16 @@
         <v>13</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="14"/>
@@ -3933,16 +3779,16 @@
         <v>14</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E70" s="18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="14"/>
@@ -3963,16 +3809,16 @@
         <v>15</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E71" s="18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="14"/>
@@ -3993,16 +3839,16 @@
         <v>16</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E72" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="14"/>
@@ -4023,16 +3869,16 @@
         <v>17</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E73" s="18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="14"/>
@@ -4053,16 +3899,16 @@
         <v>18</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E74" s="18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="14"/>
@@ -4083,16 +3929,16 @@
         <v>19</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E75" s="18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="14"/>
@@ -4113,16 +3959,16 @@
         <v>20</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E76" s="18" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="14"/>
@@ -4143,16 +3989,16 @@
         <v>21</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E77" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="14"/>
@@ -4173,16 +4019,16 @@
         <v>22</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E78" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="14"/>
@@ -4203,16 +4049,16 @@
         <v>23</v>
       </c>
       <c r="C79" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="F79" s="14" t="s">
         <v>210</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>211</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="14"/>
@@ -4233,16 +4079,16 @@
         <v>24</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E80" s="18" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="G80" s="18"/>
       <c r="H80" s="14"/>
@@ -4263,16 +4109,16 @@
         <v>25</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E81" s="18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="14"/>
@@ -4293,16 +4139,16 @@
         <v>26</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E82" s="18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="14"/>
@@ -4323,16 +4169,16 @@
         <v>27</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E83" s="18" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="14"/>
@@ -4353,16 +4199,16 @@
         <v>28</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E84" s="18" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="14"/>
@@ -4383,16 +4229,16 @@
         <v>29</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E85" s="18" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="14"/>
@@ -4413,16 +4259,16 @@
         <v>30</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E86" s="18" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="14"/>
@@ -4443,16 +4289,16 @@
         <v>31</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E87" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="14"/>
@@ -4473,16 +4319,16 @@
         <v>32</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E88" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="14"/>
@@ -4503,16 +4349,16 @@
         <v>33</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E89" s="18" t="n">
         <v>4</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="14"/>
@@ -4533,16 +4379,16 @@
         <v>34</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E90" s="18" t="n">
         <v>6</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G90" s="18"/>
       <c r="H90" s="14"/>
@@ -4563,16 +4409,16 @@
         <v>35</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E91" s="18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="14"/>
@@ -4593,16 +4439,16 @@
         <v>36</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E92" s="18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="14"/>
@@ -4623,16 +4469,16 @@
         <v>37</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E93" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="14"/>
@@ -4653,16 +4499,16 @@
         <v>38</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E94" s="18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="14"/>
@@ -4683,16 +4529,16 @@
         <v>39</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E95" s="18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="14"/>
@@ -4713,16 +4559,16 @@
         <v>40</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E96" s="18" t="n">
         <v>4</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="G96" s="18"/>
       <c r="H96" s="14"/>
@@ -4737,22 +4583,22 @@
     </row>
     <row r="97">
       <c r="A97" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B97" s="18" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E97" s="18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="14"/>
@@ -4767,22 +4613,22 @@
     </row>
     <row r="98">
       <c r="A98" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98" s="18" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E98" s="18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="14"/>
@@ -4797,22 +4643,22 @@
     </row>
     <row r="99">
       <c r="A99" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B99" s="18" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E99" s="18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="14"/>
@@ -4827,22 +4673,22 @@
     </row>
     <row r="100">
       <c r="A100" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B100" s="18" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E100" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="G100" s="18"/>
       <c r="H100" s="14"/>
@@ -4857,22 +4703,22 @@
     </row>
     <row r="101">
       <c r="A101" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="18" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E101" s="18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="14"/>
@@ -4887,22 +4733,22 @@
     </row>
     <row r="102">
       <c r="A102" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B102" s="18" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E102" s="18" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="14"/>
@@ -4917,22 +4763,22 @@
     </row>
     <row r="103">
       <c r="A103" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" s="18" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E103" s="18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G103" s="18"/>
       <c r="H103" s="14"/>
@@ -4947,22 +4793,22 @@
     </row>
     <row r="104">
       <c r="A104" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B104" s="18" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E104" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G104" s="18"/>
       <c r="H104" s="14"/>
@@ -4976,24 +4822,12 @@
       <c r="P104" s="6"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B105" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E105" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>254</v>
-      </c>
+      <c r="A105" s="14"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="13"/>
       <c r="G105" s="18"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
@@ -5006,24 +4840,12 @@
       <c r="P105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B106" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E106" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>256</v>
-      </c>
+      <c r="A106" s="14"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="13"/>
       <c r="G106" s="18"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
@@ -5036,24 +4858,12 @@
       <c r="P106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B107" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E107" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="A107" s="14"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="13"/>
       <c r="G107" s="18"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
@@ -5066,24 +4876,12 @@
       <c r="P107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B108" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E108" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>105</v>
-      </c>
+      <c r="A108" s="14"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="13"/>
       <c r="G108" s="7"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
@@ -5096,24 +4894,12 @@
       <c r="P108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B109" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E109" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="A109" s="14"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="13"/>
       <c r="G109" s="18"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
@@ -5126,24 +4912,12 @@
       <c r="P109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B110" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E110" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>260</v>
-      </c>
+      <c r="A110" s="14"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="13"/>
       <c r="G110" s="18"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
@@ -5156,24 +4930,12 @@
       <c r="P110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B111" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E111" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>262</v>
-      </c>
+      <c r="A111" s="14"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="13"/>
       <c r="G111" s="18"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
@@ -5186,24 +4948,12 @@
       <c r="P111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B112" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E112" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="A112" s="14"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="13"/>
       <c r="G112" s="18"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
@@ -5216,24 +4966,12 @@
       <c r="P112" s="6"/>
     </row>
     <row r="113">
-      <c r="A113" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B113" s="18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E113" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>90</v>
-      </c>
+      <c r="A113" s="14"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="13"/>
       <c r="G113" s="18"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
@@ -5246,24 +4984,12 @@
       <c r="P113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B114" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E114" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="A114" s="14"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="13"/>
       <c r="G114" s="18"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
@@ -5276,24 +5002,12 @@
       <c r="P114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B115" s="18" t="n">
-        <v>19</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E115" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>264</v>
-      </c>
+      <c r="A115" s="14"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="13"/>
       <c r="G115" s="7"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
@@ -5306,24 +5020,12 @@
       <c r="P115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B116" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E116" s="18" t="n">
-        <v>32</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>94</v>
-      </c>
+      <c r="A116" s="14"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="13"/>
       <c r="G116" s="18"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
@@ -5336,24 +5038,12 @@
       <c r="P116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B117" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E117" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="A117" s="14"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="13"/>
       <c r="G117" s="18"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
@@ -5366,24 +5056,12 @@
       <c r="P117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B118" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E118" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="A118" s="14"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="13"/>
       <c r="G118" s="18"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
@@ -5396,24 +5074,12 @@
       <c r="P118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B119" s="18" t="n">
-        <v>23</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E119" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>266</v>
-      </c>
+      <c r="A119" s="14"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="13"/>
       <c r="G119" s="18"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
@@ -5426,24 +5092,12 @@
       <c r="P119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120" s="18" t="n">
-        <v>24</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E120" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="A120" s="14"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="13"/>
       <c r="G120" s="7"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
@@ -5456,24 +5110,12 @@
       <c r="P120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B121" s="18" t="n">
-        <v>25</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E121" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>195</v>
-      </c>
+      <c r="A121" s="14"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="18"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
@@ -5486,24 +5128,12 @@
       <c r="P121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B122" s="18" t="n">
-        <v>26</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E122" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>197</v>
-      </c>
+      <c r="A122" s="14"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="13"/>
       <c r="G122" s="18"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
@@ -5516,24 +5146,12 @@
       <c r="P122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B123" s="18" t="n">
-        <v>27</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E123" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>268</v>
-      </c>
+      <c r="A123" s="14"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="13"/>
       <c r="G123" s="18"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
@@ -5546,24 +5164,12 @@
       <c r="P123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B124" s="18" t="n">
-        <v>28</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E124" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>270</v>
-      </c>
+      <c r="A124" s="14"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="13"/>
       <c r="G124" s="18"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
@@ -5576,24 +5182,12 @@
       <c r="P124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B125" s="18" t="n">
-        <v>29</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E125" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>199</v>
-      </c>
+      <c r="A125" s="14"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="13"/>
       <c r="G125" s="18"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
@@ -5606,24 +5200,12 @@
       <c r="P125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B126" s="18" t="n">
-        <v>30</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E126" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>272</v>
-      </c>
+      <c r="A126" s="14"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="18"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
@@ -5636,24 +5218,12 @@
       <c r="P126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B127" s="18" t="n">
-        <v>31</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E127" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>274</v>
-      </c>
+      <c r="A127" s="14"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="13"/>
       <c r="G127" s="18"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
@@ -5666,24 +5236,12 @@
       <c r="P127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B128" s="18" t="n">
-        <v>32</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E128" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>276</v>
-      </c>
+      <c r="A128" s="14"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="13"/>
       <c r="G128" s="18"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
@@ -5696,24 +5254,12 @@
       <c r="P128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B129" s="18" t="n">
-        <v>33</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E129" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>278</v>
-      </c>
+      <c r="A129" s="14"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="13"/>
       <c r="G129" s="7"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
@@ -5726,24 +5272,12 @@
       <c r="P129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B130" s="18" t="n">
-        <v>34</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E130" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>280</v>
-      </c>
+      <c r="A130" s="14"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="13"/>
       <c r="G130" s="18"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
@@ -5756,24 +5290,12 @@
       <c r="P130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B131" s="18" t="n">
-        <v>35</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E131" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>282</v>
-      </c>
+      <c r="A131" s="14"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="13"/>
       <c r="G131" s="18"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
@@ -5786,24 +5308,12 @@
       <c r="P131" s="6"/>
     </row>
     <row r="132" ht="13.5" customHeight="1">
-      <c r="A132" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B132" s="18" t="n">
-        <v>36</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E132" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>284</v>
-      </c>
+      <c r="A132" s="14"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="13"/>
       <c r="G132" s="18"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
@@ -5816,24 +5326,12 @@
       <c r="P132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B133" s="18" t="n">
-        <v>37</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E133" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>286</v>
-      </c>
+      <c r="A133" s="14"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="13"/>
       <c r="G133" s="18"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
@@ -5846,24 +5344,12 @@
       <c r="P133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B134" s="18" t="n">
-        <v>38</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E134" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>288</v>
-      </c>
+      <c r="A134" s="14"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="13"/>
       <c r="G134" s="18"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
@@ -5876,24 +5362,12 @@
       <c r="P134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B135" s="18" t="n">
-        <v>39</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E135" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F135" s="19" t="s">
-        <v>290</v>
-      </c>
+      <c r="A135" s="14"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="19"/>
       <c r="G135" s="18"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
@@ -5906,24 +5380,12 @@
       <c r="P135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B136" s="18" t="n">
-        <v>40</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E136" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F136" s="19" t="s">
-        <v>292</v>
-      </c>
+      <c r="A136" s="14"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="19"/>
       <c r="G136" s="18"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
@@ -5936,24 +5398,12 @@
       <c r="P136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B137" s="18" t="n">
-        <v>41</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E137" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F137" s="19" t="s">
-        <v>294</v>
-      </c>
+      <c r="A137" s="14"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="19"/>
       <c r="G137" s="18"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
@@ -5966,24 +5416,12 @@
       <c r="P137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B138" s="18" t="n">
-        <v>42</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E138" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>296</v>
-      </c>
+      <c r="A138" s="14"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="13"/>
       <c r="G138" s="7"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
@@ -5996,24 +5434,12 @@
       <c r="P138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B139" s="18" t="n">
-        <v>43</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E139" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>298</v>
-      </c>
+      <c r="A139" s="14"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="13"/>
       <c r="G139" s="18"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
@@ -6026,24 +5452,12 @@
       <c r="P139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" s="18" t="n">
-        <v>44</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E140" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>300</v>
-      </c>
+      <c r="A140" s="14"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="13"/>
       <c r="G140" s="18"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
@@ -6056,24 +5470,12 @@
       <c r="P140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141" s="18" t="n">
-        <v>45</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E141" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>302</v>
-      </c>
+      <c r="A141" s="14"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="13"/>
       <c r="G141" s="18"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
@@ -6086,24 +5488,12 @@
       <c r="P141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142" s="18" t="n">
-        <v>46</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E142" s="18" t="n">
-        <v>27</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>304</v>
-      </c>
+      <c r="A142" s="14"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="13"/>
       <c r="G142" s="18"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
@@ -6116,24 +5506,12 @@
       <c r="P142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B143" s="18" t="n">
-        <v>47</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E143" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>306</v>
-      </c>
+      <c r="A143" s="14"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="13"/>
       <c r="G143" s="18"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
@@ -6146,24 +5524,12 @@
       <c r="P143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B144" s="18" t="n">
-        <v>48</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E144" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>308</v>
-      </c>
+      <c r="A144" s="14"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="13"/>
       <c r="G144" s="18"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
